--- a/Weekly Report Data Extracted_processed_08092025_FINAL.xlsx
+++ b/Weekly Report Data Extracted_processed_08092025_FINAL.xlsx
@@ -3041,6 +3041,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3334,7 +3338,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E1123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1151" sqref="F1151"/>
+      <selection pane="bottomRight" activeCell="E1146" sqref="E1146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Weekly Report Data Extracted_processed_08092025_FINAL.xlsx
+++ b/Weekly Report Data Extracted_processed_08092025_FINAL.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff5a1145bc44b797/Sharon_s Personal Folder/Sharon_s Folder/SIC/敬拜赞美曲库/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{EE565B94-3D78-4249-A7EE-3E9683A555D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413578E0-E091-4DA9-83A5-CCABD897B0C6}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{EE565B94-3D78-4249-A7EE-3E9683A555D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACBA1BCF-387C-47D8-971F-8218BEF62288}"/>
   <bookViews>
-    <workbookView xWindow="22280" yWindow="-7690" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="-83" windowWidth="16965" windowHeight="9946" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1216</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1018">
   <si>
     <t>FileName</t>
   </si>
@@ -2966,6 +2966,117 @@
   </si>
   <si>
     <t>主的爱</t>
+  </si>
+  <si>
+    <t>主日週報_14092025_Final</t>
+  </si>
+  <si>
+    <t>我相信你</t>
+  </si>
+  <si>
+    <t>主日週報_21092025_Final</t>
+  </si>
+  <si>
+    <t>神未曾應許</t>
+  </si>
+  <si>
+    <t>讓神兒子的愛圍繞你</t>
+  </si>
+  <si>
+    <t>直到主耶穌再來時候</t>
+  </si>
+  <si>
+    <t>神未曾应许</t>
+  </si>
+  <si>
+    <t>让神儿子的爱围绕你</t>
+  </si>
+  <si>
+    <t>直到主耶稣再来时候</t>
+  </si>
+  <si>
+    <t>主日週報_28092025_Final</t>
+  </si>
+  <si>
+    <t>我願做主俘虜</t>
+  </si>
+  <si>
+    <t>我愿做主俘虏</t>
+  </si>
+  <si>
+    <t>合而唯一</t>
+  </si>
+  <si>
+    <t>主日週報_05102025_final</t>
+  </si>
+  <si>
+    <t>我要看見</t>
+  </si>
+  <si>
+    <t>我要看见</t>
+  </si>
+  <si>
+    <t>主日週報_12102025_Final</t>
+  </si>
+  <si>
+    <t>主日週報_19102025_Final</t>
+  </si>
+  <si>
+    <t>我們愛戴的王</t>
+  </si>
+  <si>
+    <t>我的負擔</t>
+  </si>
+  <si>
+    <t>我们爱戴的王</t>
+  </si>
+  <si>
+    <t>我要一心称谢你</t>
+  </si>
+  <si>
+    <t>我的负担</t>
+  </si>
+  <si>
+    <t>主日週報_26102025_Final</t>
+  </si>
+  <si>
+    <t>主日週報_02112025</t>
+  </si>
+  <si>
+    <t>我要一心稱謝你</t>
+  </si>
+  <si>
+    <t>主日週報_09112025</t>
+  </si>
+  <si>
+    <t>主日週報_16112025</t>
+  </si>
+  <si>
+    <t>敬拜萬世之王</t>
+  </si>
+  <si>
+    <t>求聖靈充滿</t>
+  </si>
+  <si>
+    <t>敬拜万世之王</t>
+  </si>
+  <si>
+    <t>求圣灵充满</t>
+  </si>
+  <si>
+    <t>主日週報_23112025</t>
+  </si>
+  <si>
+    <t>主日週報_30112025</t>
+  </si>
+  <si>
+    <t>主日周報_Final_07122025</t>
+  </si>
+  <si>
+    <t>主我愿像你</t>
+  </si>
+  <si>
+    <t>主日周報_Final_14122025</t>
   </si>
 </sst>
 </file>
@@ -3041,10 +3152,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3332,13 +3439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1151"/>
+  <dimension ref="A1:F1216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E1123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E1202" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1146" sqref="E1146"/>
+      <selection pane="bottomRight" activeCell="C1207" sqref="C1207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26367,8 +26474,1308 @@
         <v>979</v>
       </c>
     </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1152" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1152">
+        <v>2025</v>
+      </c>
+      <c r="C1152">
+        <v>9</v>
+      </c>
+      <c r="D1152">
+        <v>14</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1153" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1153">
+        <v>2025</v>
+      </c>
+      <c r="C1153">
+        <v>9</v>
+      </c>
+      <c r="D1153">
+        <v>14</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1154" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1154">
+        <v>2025</v>
+      </c>
+      <c r="C1154">
+        <v>9</v>
+      </c>
+      <c r="D1154">
+        <v>14</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1155" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1155">
+        <v>2025</v>
+      </c>
+      <c r="C1155">
+        <v>9</v>
+      </c>
+      <c r="D1155">
+        <v>14</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1156" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1156">
+        <v>2025</v>
+      </c>
+      <c r="C1156">
+        <v>9</v>
+      </c>
+      <c r="D1156">
+        <v>14</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>982</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1157" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1157">
+        <v>2025</v>
+      </c>
+      <c r="C1157">
+        <v>9</v>
+      </c>
+      <c r="D1157">
+        <v>21</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1158" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1158">
+        <v>2025</v>
+      </c>
+      <c r="C1158">
+        <v>9</v>
+      </c>
+      <c r="D1158">
+        <v>21</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1159" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1159">
+        <v>2025</v>
+      </c>
+      <c r="C1159">
+        <v>9</v>
+      </c>
+      <c r="D1159">
+        <v>21</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1160" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1160">
+        <v>2025</v>
+      </c>
+      <c r="C1160">
+        <v>9</v>
+      </c>
+      <c r="D1160">
+        <v>21</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>988</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1161" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1161">
+        <v>2025</v>
+      </c>
+      <c r="C1161">
+        <v>9</v>
+      </c>
+      <c r="D1161">
+        <v>21</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>989</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1162" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1162">
+        <v>2025</v>
+      </c>
+      <c r="C1162">
+        <v>9</v>
+      </c>
+      <c r="D1162">
+        <v>28</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1163" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1163">
+        <v>2025</v>
+      </c>
+      <c r="C1163">
+        <v>9</v>
+      </c>
+      <c r="D1163">
+        <v>28</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1164" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1164">
+        <v>2025</v>
+      </c>
+      <c r="C1164">
+        <v>9</v>
+      </c>
+      <c r="D1164">
+        <v>28</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>992</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1165" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1165">
+        <v>2025</v>
+      </c>
+      <c r="C1165">
+        <v>9</v>
+      </c>
+      <c r="D1165">
+        <v>28</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1166" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1166">
+        <v>2025</v>
+      </c>
+      <c r="C1166">
+        <v>9</v>
+      </c>
+      <c r="D1166">
+        <v>28</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>993</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1167" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1167">
+        <v>2025</v>
+      </c>
+      <c r="C1167">
+        <v>10</v>
+      </c>
+      <c r="D1167">
+        <v>5</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>996</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1168" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1168">
+        <v>2025</v>
+      </c>
+      <c r="C1168">
+        <v>10</v>
+      </c>
+      <c r="D1168">
+        <v>5</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1169" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1169">
+        <v>2025</v>
+      </c>
+      <c r="C1169">
+        <v>10</v>
+      </c>
+      <c r="D1169">
+        <v>5</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>684</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1170" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1170">
+        <v>2025</v>
+      </c>
+      <c r="C1170">
+        <v>10</v>
+      </c>
+      <c r="D1170">
+        <v>5</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1171" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1171">
+        <v>2025</v>
+      </c>
+      <c r="C1171">
+        <v>10</v>
+      </c>
+      <c r="D1171">
+        <v>12</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1172" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1172">
+        <v>2025</v>
+      </c>
+      <c r="C1172">
+        <v>10</v>
+      </c>
+      <c r="D1172">
+        <v>12</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1173" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1173">
+        <v>2025</v>
+      </c>
+      <c r="C1173">
+        <v>10</v>
+      </c>
+      <c r="D1173">
+        <v>12</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1174" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1174">
+        <v>2025</v>
+      </c>
+      <c r="C1174">
+        <v>10</v>
+      </c>
+      <c r="D1174">
+        <v>12</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1175" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1175">
+        <v>2025</v>
+      </c>
+      <c r="C1175">
+        <v>10</v>
+      </c>
+      <c r="D1175">
+        <v>12</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1176" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1176">
+        <v>2025</v>
+      </c>
+      <c r="C1176">
+        <v>10</v>
+      </c>
+      <c r="D1176">
+        <v>19</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>806</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1177" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1177">
+        <v>2025</v>
+      </c>
+      <c r="C1177">
+        <v>10</v>
+      </c>
+      <c r="D1177">
+        <v>19</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>996</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1178" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1178">
+        <v>2025</v>
+      </c>
+      <c r="C1178">
+        <v>10</v>
+      </c>
+      <c r="D1178">
+        <v>19</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1179" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1179">
+        <v>2025</v>
+      </c>
+      <c r="C1179">
+        <v>10</v>
+      </c>
+      <c r="D1179">
+        <v>19</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1180" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1180">
+        <v>2025</v>
+      </c>
+      <c r="C1180">
+        <v>10</v>
+      </c>
+      <c r="D1180">
+        <v>19</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1181" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1181">
+        <v>2025</v>
+      </c>
+      <c r="C1181">
+        <v>10</v>
+      </c>
+      <c r="D1181">
+        <v>26</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1182" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1182">
+        <v>2025</v>
+      </c>
+      <c r="C1182">
+        <v>10</v>
+      </c>
+      <c r="D1182">
+        <v>26</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1183" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1183">
+        <v>2025</v>
+      </c>
+      <c r="C1183">
+        <v>10</v>
+      </c>
+      <c r="D1183">
+        <v>26</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1184" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1184">
+        <v>2025</v>
+      </c>
+      <c r="C1184">
+        <v>10</v>
+      </c>
+      <c r="D1184">
+        <v>26</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1185" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1185">
+        <v>2025</v>
+      </c>
+      <c r="C1185">
+        <v>10</v>
+      </c>
+      <c r="D1185">
+        <v>26</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1186" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1186">
+        <v>2025</v>
+      </c>
+      <c r="C1186">
+        <v>11</v>
+      </c>
+      <c r="D1186">
+        <v>2</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1187" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1187">
+        <v>2025</v>
+      </c>
+      <c r="C1187">
+        <v>11</v>
+      </c>
+      <c r="D1187">
+        <v>2</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1188" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1188">
+        <v>2025</v>
+      </c>
+      <c r="C1188">
+        <v>11</v>
+      </c>
+      <c r="D1188">
+        <v>2</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1189" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1189">
+        <v>2025</v>
+      </c>
+      <c r="C1189">
+        <v>11</v>
+      </c>
+      <c r="D1189">
+        <v>2</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>780</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1190" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1190">
+        <v>2025</v>
+      </c>
+      <c r="C1190">
+        <v>11</v>
+      </c>
+      <c r="D1190">
+        <v>9</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1191" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1191">
+        <v>2025</v>
+      </c>
+      <c r="C1191">
+        <v>11</v>
+      </c>
+      <c r="D1191">
+        <v>9</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1192" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1192">
+        <v>2025</v>
+      </c>
+      <c r="C1192">
+        <v>11</v>
+      </c>
+      <c r="D1192">
+        <v>9</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1193" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1193">
+        <v>2025</v>
+      </c>
+      <c r="C1193">
+        <v>11</v>
+      </c>
+      <c r="D1193">
+        <v>9</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1194" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1194">
+        <v>2025</v>
+      </c>
+      <c r="C1194">
+        <v>11</v>
+      </c>
+      <c r="D1194">
+        <v>9</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1195" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1195">
+        <v>2025</v>
+      </c>
+      <c r="C1195">
+        <v>11</v>
+      </c>
+      <c r="D1195">
+        <v>16</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1196" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1196">
+        <v>2025</v>
+      </c>
+      <c r="C1196">
+        <v>11</v>
+      </c>
+      <c r="D1196">
+        <v>16</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1197" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1197">
+        <v>2025</v>
+      </c>
+      <c r="C1197">
+        <v>11</v>
+      </c>
+      <c r="D1197">
+        <v>16</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1198" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1198">
+        <v>2025</v>
+      </c>
+      <c r="C1198">
+        <v>11</v>
+      </c>
+      <c r="D1198">
+        <v>16</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1199" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1199">
+        <v>2025</v>
+      </c>
+      <c r="C1199">
+        <v>11</v>
+      </c>
+      <c r="D1199">
+        <v>16</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1200" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1200">
+        <v>2025</v>
+      </c>
+      <c r="C1200">
+        <v>11</v>
+      </c>
+      <c r="D1200">
+        <v>23</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1201" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1201">
+        <v>2025</v>
+      </c>
+      <c r="C1201">
+        <v>11</v>
+      </c>
+      <c r="D1201">
+        <v>23</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1202" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1202">
+        <v>2025</v>
+      </c>
+      <c r="C1202">
+        <v>11</v>
+      </c>
+      <c r="D1202">
+        <v>23</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>770</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1203" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1203">
+        <v>2025</v>
+      </c>
+      <c r="C1203">
+        <v>11</v>
+      </c>
+      <c r="D1203">
+        <v>23</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1204" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1204">
+        <v>2025</v>
+      </c>
+      <c r="C1204">
+        <v>11</v>
+      </c>
+      <c r="D1204">
+        <v>23</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1205" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1205">
+        <v>2025</v>
+      </c>
+      <c r="C1205">
+        <v>11</v>
+      </c>
+      <c r="D1205">
+        <v>30</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1206" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1206">
+        <v>2025</v>
+      </c>
+      <c r="C1206">
+        <v>11</v>
+      </c>
+      <c r="D1206">
+        <v>30</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1207" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1207">
+        <v>2025</v>
+      </c>
+      <c r="C1207">
+        <v>11</v>
+      </c>
+      <c r="D1207">
+        <v>30</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1208" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1208">
+        <v>2025</v>
+      </c>
+      <c r="C1208">
+        <v>11</v>
+      </c>
+      <c r="D1208">
+        <v>30</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1209" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1209">
+        <v>2025</v>
+      </c>
+      <c r="C1209">
+        <v>11</v>
+      </c>
+      <c r="D1209">
+        <v>30</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1210" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1210">
+        <v>2025</v>
+      </c>
+      <c r="C1210">
+        <v>12</v>
+      </c>
+      <c r="D1210">
+        <v>7</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1211" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1211">
+        <v>2025</v>
+      </c>
+      <c r="C1211">
+        <v>12</v>
+      </c>
+      <c r="D1211">
+        <v>7</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1212" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1212">
+        <v>2025</v>
+      </c>
+      <c r="C1212">
+        <v>12</v>
+      </c>
+      <c r="D1212">
+        <v>7</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1213" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1213">
+        <v>2025</v>
+      </c>
+      <c r="C1213">
+        <v>12</v>
+      </c>
+      <c r="D1213">
+        <v>7</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1214" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1214">
+        <v>2025</v>
+      </c>
+      <c r="C1214">
+        <v>12</v>
+      </c>
+      <c r="D1214">
+        <v>14</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1215" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1215">
+        <v>2025</v>
+      </c>
+      <c r="C1215">
+        <v>12</v>
+      </c>
+      <c r="D1215">
+        <v>14</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1216" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1216">
+        <v>2025</v>
+      </c>
+      <c r="C1216">
+        <v>12</v>
+      </c>
+      <c r="D1216">
+        <v>14</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>780</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>956</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1145" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1216" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>